--- a/GA_bNa_bCa_NaK/Best_ind_ctrl4.xlsx
+++ b/GA_bNa_bCa_NaK/Best_ind_ctrl4.xlsx
@@ -492,37 +492,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4875335846319167</v>
+        <v>0.6571775211384079</v>
       </c>
       <c r="B2" t="n">
-        <v>1.224532070784376</v>
+        <v>2.278423717364808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2520065363055241</v>
+        <v>0.4553485424606332</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8273125496066837</v>
+        <v>2.412127620305901</v>
       </c>
       <c r="E2" t="n">
-        <v>1.412247438759806</v>
+        <v>2.765049926011028</v>
       </c>
       <c r="F2" t="n">
-        <v>3.100504616831975</v>
+        <v>5.729798801224037</v>
       </c>
       <c r="G2" t="n">
-        <v>6.284729579300754</v>
+        <v>3.430915439640804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1787472157803365</v>
+        <v>0.3975795321395514</v>
       </c>
       <c r="I2" t="n">
-        <v>1.913735527788143</v>
+        <v>3.239153012195211</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2565837512549758</v>
+        <v>0.636372332822542</v>
       </c>
       <c r="K2" t="n">
-        <v>1.539134868717328</v>
+        <v>1.759028711096961</v>
       </c>
     </row>
   </sheetData>
